--- a/upload/upload.xlsx
+++ b/upload/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\work\zaki\automation\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8347926-3410-484A-A4C0-624EA0F41BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9077F78-8FC7-42FC-ABBE-B4CE690C0AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>remarque</t>
   </si>
@@ -105,9 +105,6 @@
     <t>0662162129</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>tiaret</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>0661237466</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>XXXXL+maron foncé+bureau</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>0557386956</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>Plateau remonte n 7 Relizane</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
     <t>0771576542</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>سدي بلعباس</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>0671591336</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>Biskra</t>
   </si>
   <si>
@@ -210,15 +195,9 @@
     <t>0662076041</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>معسكر</t>
   </si>
   <si>
-    <t>Sig</t>
-  </si>
-  <si>
     <t>مسجد عثمان بن عفان سيق</t>
   </si>
   <si>
@@ -231,9 +210,6 @@
     <t>0661222032</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Tlemcen</t>
   </si>
   <si>
@@ -253,6 +229,9 @@
   </si>
   <si>
     <t>188cm الطول التاعي+blue+التوصيل للمنزل 50 الف</t>
+  </si>
+  <si>
+    <t>سيق</t>
   </si>
 </sst>
 </file>
@@ -616,7 +595,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -711,17 +690,17 @@
         <v>23</v>
       </c>
       <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -731,7 +710,7 @@
         <v>8500</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -739,14 +718,14 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3"/>
-      <c r="E3" t="s">
-        <v>30</v>
+      <c r="E3">
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -765,7 +744,7 @@
         <v>8500</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -773,23 +752,23 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -799,7 +778,7 @@
         <v>8500</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -807,14 +786,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
-      <c r="E5" t="s">
-        <v>40</v>
+      <c r="E5">
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -823,7 +802,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -833,7 +812,7 @@
         <v>8500</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -841,23 +820,23 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>44</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -867,7 +846,7 @@
         <v>8500</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -875,23 +854,23 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -901,7 +880,7 @@
         <v>8500</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -909,23 +888,23 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8"/>
-      <c r="E8" t="s">
-        <v>59</v>
+      <c r="E8">
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
@@ -935,7 +914,7 @@
         <v>8500</v>
       </c>
       <c r="L8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -943,23 +922,23 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D9"/>
-      <c r="E9" t="s">
-        <v>66</v>
+      <c r="E9">
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -969,7 +948,7 @@
         <v>8500</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -977,23 +956,23 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D10"/>
-      <c r="E10" t="s">
-        <v>66</v>
+      <c r="E10">
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
@@ -1003,7 +982,7 @@
         <v>8500</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/upload/upload.xlsx
+++ b/upload/upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\work\zaki\automation\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9077F78-8FC7-42FC-ABBE-B4CE690C0AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B13B124-BAF1-4EDB-ABF2-7F297FE363D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>remarque</t>
   </si>
@@ -88,150 +88,6 @@
   </si>
   <si>
     <t>produit*</t>
-  </si>
-  <si>
-    <t>Relizane</t>
-  </si>
-  <si>
-    <t>Blida</t>
-  </si>
-  <si>
-    <t>قشابية</t>
-  </si>
-  <si>
-    <t>ALIAMMAR</t>
-  </si>
-  <si>
-    <t>0662162129</t>
-  </si>
-  <si>
-    <t>tiaret</t>
-  </si>
-  <si>
-    <t>Tiaret</t>
-  </si>
-  <si>
-    <t>56+gris foncé+bureau</t>
-  </si>
-  <si>
-    <t>حسان وحيد</t>
-  </si>
-  <si>
-    <t>0661237466</t>
-  </si>
-  <si>
-    <t>XXXXL+maron foncé+bureau</t>
-  </si>
-  <si>
-    <t>قطاف</t>
-  </si>
-  <si>
-    <t>0771517160</t>
-  </si>
-  <si>
-    <t>البليدة</t>
-  </si>
-  <si>
-    <t>Meftah</t>
-  </si>
-  <si>
-    <t>بلدية مفتاح</t>
-  </si>
-  <si>
-    <t>1900-03-02 00:00:00+maron foncé+bureau</t>
-  </si>
-  <si>
-    <t>Amine BENAOUDA</t>
-  </si>
-  <si>
-    <t>0557386956</t>
-  </si>
-  <si>
-    <t>Plateau remonte n 7 Relizane</t>
-  </si>
-  <si>
-    <t>58+gris clair+للمنزل</t>
-  </si>
-  <si>
-    <t>علي</t>
-  </si>
-  <si>
-    <t>0771576542</t>
-  </si>
-  <si>
-    <t>سدي بلعباس</t>
-  </si>
-  <si>
-    <t>Sidi Bel Abbes</t>
-  </si>
-  <si>
-    <t>16شارع لعوج قاضي</t>
-  </si>
-  <si>
-    <t>Large+maron+للمنزل</t>
-  </si>
-  <si>
-    <t>Mabrouk Mettai</t>
-  </si>
-  <si>
-    <t>0671591336</t>
-  </si>
-  <si>
-    <t>Biskra</t>
-  </si>
-  <si>
-    <t>El Ghrous</t>
-  </si>
-  <si>
-    <t>Elghrous</t>
-  </si>
-  <si>
-    <t>58+zouj vert et gris clair+nan</t>
-  </si>
-  <si>
-    <t>يوسف بوعناني</t>
-  </si>
-  <si>
-    <t>0662076041</t>
-  </si>
-  <si>
-    <t>معسكر</t>
-  </si>
-  <si>
-    <t>مسجد عثمان بن عفان سيق</t>
-  </si>
-  <si>
-    <t>58+blue+التوصيل للمنزل 50 ميل</t>
-  </si>
-  <si>
-    <t>Abdelghani</t>
-  </si>
-  <si>
-    <t>0661222032</t>
-  </si>
-  <si>
-    <t>Tlemcen</t>
-  </si>
-  <si>
-    <t>Zone industrial</t>
-  </si>
-  <si>
-    <t>XxXXL+bureau+noir</t>
-  </si>
-  <si>
-    <t>lotfi</t>
-  </si>
-  <si>
-    <t>0772102309</t>
-  </si>
-  <si>
-    <t>tlemcen</t>
-  </si>
-  <si>
-    <t>188cm الطول التاعي+blue+التوصيل للمنزل 50 الف</t>
-  </si>
-  <si>
-    <t>سيق</t>
   </si>
 </sst>
 </file>
@@ -594,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -680,310 +536,112 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="D2"/>
-      <c r="E2">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
       <c r="J2"/>
-      <c r="K2">
-        <v>8500</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
+      <c r="K2"/>
+      <c r="L2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="J3"/>
-      <c r="K3">
-        <v>8500</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
       <c r="D4"/>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="J4"/>
-      <c r="K4">
-        <v>8500</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
       <c r="D5"/>
-      <c r="E5">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="J5"/>
-      <c r="K5">
-        <v>8500</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
+      <c r="K5"/>
+      <c r="L5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="D6"/>
-      <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="J6"/>
-      <c r="K6">
-        <v>8500</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
       <c r="D7"/>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="J7"/>
-      <c r="K7">
-        <v>8500</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
+      <c r="K7"/>
+      <c r="L7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
       <c r="D8"/>
-      <c r="E8">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="J8"/>
-      <c r="K8">
-        <v>8500</v>
-      </c>
-      <c r="L8" t="s">
-        <v>56</v>
-      </c>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
       <c r="D9"/>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
       <c r="J9"/>
-      <c r="K9">
-        <v>8500</v>
-      </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
+      <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
       <c r="D10"/>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="J10"/>
-      <c r="K10">
-        <v>8500</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
+      <c r="K10"/>
+      <c r="L10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0"/>
